--- a/project/개발일정_v2.xlsx
+++ b/project/개발일정_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smpsm\Desktop\상민\School\3학년 2학기 과목\영상처리 프로그래밍\기말 project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smpsm\영상처리 프로그래밍\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9E0779-9E4D-4F81-9422-488D6BC43774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37812CFA-4170-4AB7-B724-861D6393865E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19845" yWindow="825" windowWidth="19005" windowHeight="12480" xr2:uid="{F6B39C8F-23E9-4BB3-8C68-E20E2FF215EC}"/>
+    <workbookView xWindow="-19785" yWindow="1080" windowWidth="18945" windowHeight="9990" xr2:uid="{F6B39C8F-23E9-4BB3-8C68-E20E2FF215EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -956,50 +956,50 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1350,8 +1350,8 @@
   <dimension ref="B1:AC52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B6"/>
+      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB55" sqref="AB55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1365,36 +1365,36 @@
   <sheetData>
     <row r="1" spans="2:29" ht="18" thickBot="1"/>
     <row r="2" spans="2:29" ht="38.4" customHeight="1" thickBot="1">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="52"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="46"/>
     </row>
     <row r="3" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B3" s="59" t="s">
@@ -1404,73 +1404,73 @@
         <v>1</v>
       </c>
       <c r="D3" s="63"/>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="56" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="58"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="57"/>
     </row>
     <row r="4" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B4" s="60"/>
       <c r="C4" s="64"/>
       <c r="D4" s="65"/>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="53" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="53" t="s">
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="53" t="s">
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="55"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="54"/>
     </row>
     <row r="5" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B5" s="60"/>
@@ -1636,7 +1636,7 @@
       <c r="B7" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="50" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1670,7 +1670,7 @@
     </row>
     <row r="8" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B8" s="48"/>
-      <c r="C8" s="45"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="9" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B9" s="48"/>
-      <c r="C9" s="45"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="10" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B10" s="48"/>
-      <c r="C10" s="46"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="11" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B11" s="48"/>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="50" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1800,7 +1800,7 @@
     </row>
     <row r="12" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B12" s="48"/>
-      <c r="C12" s="45"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="13" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B13" s="48"/>
-      <c r="C13" s="45"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="14" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B14" s="48"/>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="50" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1898,7 +1898,7 @@
     </row>
     <row r="15" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B15" s="49"/>
-      <c r="C15" s="46"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="16" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B16" s="48"/>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="50" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1964,7 +1964,7 @@
     </row>
     <row r="17" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B17" s="48"/>
-      <c r="C17" s="45"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="18" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B18" s="48"/>
-      <c r="C18" s="45"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="35" t="s">
         <v>49</v>
       </c>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="19" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B19" s="48"/>
-      <c r="C19" s="45"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="1" t="s">
         <v>52</v>
       </c>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="20" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B20" s="48"/>
-      <c r="C20" s="45"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="36" t="s">
         <v>57</v>
       </c>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="21" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B21" s="48"/>
-      <c r="C21" s="46"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="36" t="s">
         <v>58</v>
       </c>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="22" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B22" s="48"/>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="50" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2158,7 +2158,7 @@
     </row>
     <row r="23" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B23" s="48"/>
-      <c r="C23" s="45"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="1" t="s">
         <v>56</v>
       </c>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="24" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B24" s="48"/>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="50" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2224,7 +2224,7 @@
     </row>
     <row r="25" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B25" s="48"/>
-      <c r="C25" s="45"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="26" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B26" s="48"/>
-      <c r="C26" s="45"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="1" t="s">
         <v>53</v>
       </c>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="27" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B27" s="48"/>
-      <c r="C27" s="46"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="1" t="s">
         <v>64</v>
       </c>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="28" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B28" s="48"/>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="50" t="s">
         <v>54</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2354,7 +2354,7 @@
     </row>
     <row r="29" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B29" s="48"/>
-      <c r="C29" s="45"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="1" t="s">
         <v>61</v>
       </c>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="30" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B30" s="48"/>
-      <c r="C30" s="45"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="1" t="s">
         <v>62</v>
       </c>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="31" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B31" s="48"/>
-      <c r="C31" s="45"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="1" t="s">
         <v>22</v>
       </c>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="32" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B32" s="48"/>
-      <c r="C32" s="45"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="1" t="s">
         <v>63</v>
       </c>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="33" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B33" s="48"/>
-      <c r="C33" s="45"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="34" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B34" s="48"/>
-      <c r="C34" s="45"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="1" t="s">
         <v>53</v>
       </c>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="35" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B35" s="48"/>
-      <c r="C35" s="46"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="1" t="s">
         <v>64</v>
       </c>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="37" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B37" s="48"/>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="50" t="s">
         <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2646,7 +2646,7 @@
     </row>
     <row r="38" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B38" s="48"/>
-      <c r="C38" s="45"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="1" t="s">
         <v>22</v>
       </c>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="39" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B39" s="48"/>
-      <c r="C39" s="45"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="1" t="s">
         <v>63</v>
       </c>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="40" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B40" s="48"/>
-      <c r="C40" s="45"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="1" t="s">
         <v>47</v>
       </c>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="41" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B41" s="48"/>
-      <c r="C41" s="45"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="1" t="s">
         <v>53</v>
       </c>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="42" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B42" s="48"/>
-      <c r="C42" s="46"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="43" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B43" s="48"/>
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="50" t="s">
         <v>68</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -2840,7 +2840,7 @@
     </row>
     <row r="44" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B44" s="48"/>
-      <c r="C44" s="45"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="1" t="s">
         <v>56</v>
       </c>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="45" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B45" s="48"/>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="50" t="s">
         <v>67</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -2906,7 +2906,7 @@
     </row>
     <row r="46" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B46" s="48"/>
-      <c r="C46" s="45"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="1" t="s">
         <v>70</v>
       </c>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="47" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B47" s="48"/>
-      <c r="C47" s="45"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="1" t="s">
         <v>71</v>
       </c>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="48" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B48" s="49"/>
-      <c r="C48" s="46"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="1" t="s">
         <v>72</v>
       </c>
@@ -3004,7 +3004,7 @@
       <c r="B49" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="50" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -3038,7 +3038,7 @@
     </row>
     <row r="50" spans="2:29" ht="18" customHeight="1" thickBot="1">
       <c r="B50" s="48"/>
-      <c r="C50" s="46"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="1" t="s">
         <v>40</v>
       </c>
@@ -3118,6 +3118,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B16:B48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C43:C44"/>
     <mergeCell ref="B2:AC2"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="C14:C15"/>
@@ -3131,16 +3141,6 @@
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:D6"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B16:B48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="C43:C44"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
